--- a/assets/docs/Exe_9.2E.xlsx
+++ b/assets/docs/Exe_9.2E.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,8 +15,11 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,6 +38,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
+    <t>Frequencies</t>
+  </si>
+  <si>
+    <t>Location A</t>
+  </si>
+  <si>
+    <t>Location B</t>
+  </si>
+  <si>
     <t>Absent</t>
   </si>
   <si>
@@ -44,19 +56,10 @@
     <t>Abundant</t>
   </si>
   <si>
-    <t>Location A</t>
-  </si>
-  <si>
-    <t>Location B</t>
-  </si>
-  <si>
-    <t>Frequencies</t>
+    <t>Total</t>
   </si>
   <si>
     <t>Percentages</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -66,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1526,27 +1529,27 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="3" width="12.7265625" customWidth="1"/>
+    <col min="1" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="12.95">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="12.95">
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.95">
+      <c r="A4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="B4" s="3">
         <v>8</v>
@@ -1555,9 +1558,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="12.95">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>22</v>
@@ -1566,9 +1569,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="12.95">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>26</v>
@@ -1577,9 +1580,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="12.95">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <f>SUM(B4:B6)</f>
@@ -1590,31 +1593,31 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="12.95">
       <c r="A8" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="12.95">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="12.95">
       <c r="A11" s="1"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="12.95">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.95">
+      <c r="A13" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>0</v>
       </c>
       <c r="B13" s="7">
         <f t="shared" ref="B13:C15" si="0">100*B4/B$7</f>
@@ -1625,9 +1628,9 @@
         <v>45.454545454545453</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="12.95">
       <c r="A14" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
@@ -1638,9 +1641,9 @@
         <v>31.818181818181817</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="12.95">
       <c r="A15" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
@@ -1651,9 +1654,9 @@
         <v>22.727272727272727</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="12.95">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
         <f>SUM(B13:B15)</f>
